--- a/teaching/traditional_assets/database/data/singapore/singapore_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_reinsurance.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0206</v>
+        <v>0.021</v>
       </c>
       <c r="E2">
-        <v>-0.0886</v>
+        <v>-0.141</v>
       </c>
       <c r="G2">
-        <v>0.09519553072625697</v>
+        <v>0.09460431654676257</v>
       </c>
       <c r="H2">
-        <v>0.09519553072625697</v>
+        <v>0.09460431654676257</v>
       </c>
       <c r="I2">
-        <v>0.1318435754189944</v>
+        <v>0.06750599520383692</v>
       </c>
       <c r="J2">
-        <v>0.1092418196328811</v>
+        <v>0.06416067146282972</v>
       </c>
       <c r="K2">
-        <v>9.83</v>
+        <v>5.31</v>
       </c>
       <c r="L2">
-        <v>0.1098324022346369</v>
+        <v>0.06366906474820143</v>
       </c>
       <c r="M2">
-        <v>5.69</v>
+        <v>5.366699999999999</v>
       </c>
       <c r="N2">
-        <v>0.04287867370007536</v>
+        <v>0.04032081141998497</v>
       </c>
       <c r="O2">
-        <v>0.5788402848423194</v>
+        <v>1.010677966101695</v>
       </c>
       <c r="P2">
-        <v>5.69</v>
+        <v>5.366699999999999</v>
       </c>
       <c r="Q2">
-        <v>0.04287867370007536</v>
+        <v>0.04032081141998497</v>
       </c>
       <c r="R2">
-        <v>0.5788402848423194</v>
+        <v>1.010677966101695</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,31 +639,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>70.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="V2">
-        <v>0.5320271288620949</v>
+        <v>0.7062359128474831</v>
       </c>
       <c r="W2">
-        <v>0.05401098901098901</v>
+        <v>0.02673716012084592</v>
       </c>
       <c r="X2">
-        <v>0.06703499276552116</v>
+        <v>0.06839863771989911</v>
       </c>
       <c r="Y2">
-        <v>-0.01302400375453215</v>
+        <v>-0.04166147759905319</v>
       </c>
       <c r="Z2">
-        <v>0.7782608695652173</v>
+        <v>0.6430223592906709</v>
       </c>
       <c r="AA2">
-        <v>0.08501863354037267</v>
+        <v>0.04125674633770239</v>
       </c>
       <c r="AB2">
-        <v>0.06703499276552116</v>
+        <v>0.06839863771989911</v>
       </c>
       <c r="AC2">
-        <v>0.01798364077485151</v>
+        <v>-0.02714189138219672</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-70.59999999999999</v>
+        <v>-94</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-1.136876006441224</v>
+        <v>-2.404092071611254</v>
       </c>
       <c r="AK2">
-        <v>-0.5782145782145782</v>
+        <v>-0.9523809523809524</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-5.834710743801653</v>
+        <v>-15.98639455782313</v>
       </c>
     </row>
     <row r="3">
@@ -719,46 +719,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0206</v>
+        <v>0.021</v>
       </c>
       <c r="E3">
-        <v>-0.0886</v>
+        <v>-0.141</v>
       </c>
       <c r="G3">
-        <v>0.09519553072625697</v>
+        <v>0.09460431654676257</v>
       </c>
       <c r="H3">
-        <v>0.09519553072625697</v>
+        <v>0.09460431654676257</v>
       </c>
       <c r="I3">
-        <v>0.1318435754189944</v>
+        <v>0.06750599520383692</v>
       </c>
       <c r="J3">
-        <v>0.1092418196328811</v>
+        <v>0.06416067146282972</v>
       </c>
       <c r="K3">
-        <v>9.83</v>
+        <v>5.31</v>
       </c>
       <c r="L3">
-        <v>0.1098324022346369</v>
+        <v>0.06366906474820143</v>
       </c>
       <c r="M3">
-        <v>5.69</v>
+        <v>5.366699999999999</v>
       </c>
       <c r="N3">
-        <v>0.04287867370007536</v>
+        <v>0.04032081141998497</v>
       </c>
       <c r="O3">
-        <v>0.5788402848423194</v>
+        <v>1.010677966101695</v>
       </c>
       <c r="P3">
-        <v>5.69</v>
+        <v>5.366699999999999</v>
       </c>
       <c r="Q3">
-        <v>0.04287867370007536</v>
+        <v>0.04032081141998497</v>
       </c>
       <c r="R3">
-        <v>0.5788402848423194</v>
+        <v>1.010677966101695</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,31 +767,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>70.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="V3">
-        <v>0.5320271288620949</v>
+        <v>0.7062359128474831</v>
       </c>
       <c r="W3">
-        <v>0.05401098901098901</v>
+        <v>0.02673716012084592</v>
       </c>
       <c r="X3">
-        <v>0.06703499276552116</v>
+        <v>0.06839863771989911</v>
       </c>
       <c r="Y3">
-        <v>-0.01302400375453215</v>
+        <v>-0.04166147759905319</v>
       </c>
       <c r="Z3">
-        <v>0.7782608695652173</v>
+        <v>0.6430223592906709</v>
       </c>
       <c r="AA3">
-        <v>0.08501863354037267</v>
+        <v>0.04125674633770239</v>
       </c>
       <c r="AB3">
-        <v>0.06703499276552116</v>
+        <v>0.06839863771989911</v>
       </c>
       <c r="AC3">
-        <v>0.01798364077485151</v>
+        <v>-0.02714189138219672</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-70.59999999999999</v>
+        <v>-94</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-1.136876006441224</v>
+        <v>-2.404092071611254</v>
       </c>
       <c r="AK3">
-        <v>-0.5782145782145782</v>
+        <v>-0.9523809523809524</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-5.834710743801653</v>
+        <v>-15.98639455782313</v>
       </c>
     </row>
   </sheetData>
